--- a/Supplementary_figures/SI_appendix_fig4/SI_appendix_fig4A.xlsx
+++ b/Supplementary_figures/SI_appendix_fig4/SI_appendix_fig4A.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alessandro\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alessandro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AE904FD-B9D7-45DC-96E8-45D51A57C9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525DE1C4-0FEB-4F9F-8EEC-282FF0FECC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="raw_rmsf" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -76,7 +89,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -938,7 +951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
